--- a/whisper_testing.xlsx
+++ b/whisper_testing.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tobias/Documents/GitHub/Predictive-Code-Repo/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{BC59C1B9-3017-CC44-912B-F09F01B44F1D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C37EB88-2AAE-E441-88A5-ED194C17F60A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="780" windowWidth="34200" windowHeight="21360" xr2:uid="{3DB540D2-B07B-EA49-8C48-E21156667455}"/>
+    <workbookView xWindow="17200" yWindow="940" windowWidth="16840" windowHeight="21060" xr2:uid="{3DB540D2-B07B-EA49-8C48-E21156667455}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -36,97 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="35">
-  <si>
-    <t>put it on. I already started to get hangry. That describes when you are hungry and that make</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> I have no strong opinions either way. It meets basic expectations without excitement.</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> It didn't come close to what I was promised, and now I regret spending money on it.</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> This experience was truly fantastic and I couldn't be happier with how everything turned out</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> No major complaints or praises, it works fine and it's all I can say.</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> I'm really satisfied with every aspect of this, truly top-notch quality in service.</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> It's perfectly serviceable and acceptable, though it doesn't stand out in any way.</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> This was the worst experience I've ever had. I absolutely despise how turned out.</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> I'm not sure how I feel about this, it's neither impressive nor disappointing.</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> I regret purchasing this item. It cost me nothing but it frustrated and regret me.</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Was a great experience of all, every detail was handled perfectly and with care.</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> I can't stand this product. It's flawed in every way and has been a major headache.</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> I absolutely love this product. It has exceeded all of my expectations and made my day.</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> No major complaints or praises, it works fine and that's all I can say.</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> This product is delivered exactly what was promised and more. I'm genuinely impressed.</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> It's serviceable and acceptable, though it's nothing that stand out in any way.</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> I regret purchasing this. It's complete rubbish and I just don't like working with it.</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Amazing draw from start to finish. You guys really do that tremendous job.</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Man, I hate doing this. Sitting here and recording this all the time is really frustrating.</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> This university truly is an organized or exam-phase as a mess and most of the exams are badl</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Wow, on our university, it's truly going to be great job. Experience and learning here is pr</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> There's truly nothing better can say. Nothing bad, truly.</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Well, what doesn't kill you makes you stronger, huh? Let's find out how good we are.</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> This tiny whisper model is truly impressive. The recordings are very much on point.</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> I'm truly happy that this exam phase is coming to an end. The semester has truly been hard.</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> The air in this sound booth here is truly a joke. Maybe I'll not even survive this by breath</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Some important thing, that must be beautiful if you're not sitting in the third floor of Kat</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> This new AI tool is actually something awesome. I excited how much the new get-up free versi</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> I only need to do 10 more that is if you're really beautiful because then the rest done here</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Eating here at Katolika University truly is not that good. Food is not that healthy and also it doesn't taste that good.</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="37">
   <si>
     <t xml:space="preserve">tons of people in the area sitting here waiting on me while I doing this recordings and  and tons of people in the area sitting here waiting on me while I doing this recordings and </t>
   </si>
@@ -140,14 +50,110 @@
     <t>true_sentiment</t>
   </si>
   <si>
-    <t>true_emotion</t>
+    <t>I have no strong opinions either way. It meets basic expectations without excitement.</t>
+  </si>
+  <si>
+    <t>neutral</t>
+  </si>
+  <si>
+    <t>It didn't come close to what I was promised, and now I regret spending money on it.</t>
+  </si>
+  <si>
+    <t>negative</t>
+  </si>
+  <si>
+    <t>This experience was truly fantastic and I couldn't be happier with how everything turned out</t>
+  </si>
+  <si>
+    <t>positive</t>
+  </si>
+  <si>
+    <t>No major complaints or praises, it works fine and it's all I can say.</t>
+  </si>
+  <si>
+    <t>I'm really satisfied with every aspect of this, truly top-notch quality in service.</t>
+  </si>
+  <si>
+    <t>It's perfectly serviceable and acceptable, though it doesn't stand out in any way.</t>
+  </si>
+  <si>
+    <t>This was the worst experience I've ever had. I absolutely despise how turned out.</t>
+  </si>
+  <si>
+    <t>I'm not sure how I feel about this, it's neither impressive nor disappointing.</t>
+  </si>
+  <si>
+    <t>I regret purchasing this item. It cost me nothing but it frustrated and regret me.</t>
+  </si>
+  <si>
+    <t>Was a great experience of all, every detail was handled perfectly and with care.</t>
+  </si>
+  <si>
+    <t>I can't stand this product. It's flawed in every way and has been a major headache.</t>
+  </si>
+  <si>
+    <t>I absolutely love this product. It has exceeded all of my expectations and made my day.</t>
+  </si>
+  <si>
+    <t>No major complaints or praises, it works fine and that's all I can say.</t>
+  </si>
+  <si>
+    <t>This product is delivered exactly what was promised and more. I'm genuinely impressed.</t>
+  </si>
+  <si>
+    <t>It's serviceable and acceptable, though it's nothing that stand out in any way.</t>
+  </si>
+  <si>
+    <t>I regret purchasing this. It's complete rubbish and I just don't like working with it.</t>
+  </si>
+  <si>
+    <t>Amazing draw from start to finish. You guys really do that tremendous job.</t>
+  </si>
+  <si>
+    <t>Man, I hate doing this. Sitting here and recording this all the time is really frustrating.</t>
+  </si>
+  <si>
+    <t>This university truly is an organized or exam-phase as a mess and most of the exams are badl</t>
+  </si>
+  <si>
+    <t>Wow, on our university, it's truly going to be great job. Experience and learning here is promissing</t>
+  </si>
+  <si>
+    <t>There's truly nothing better can say. Nothing bad, truly.</t>
+  </si>
+  <si>
+    <t>Well, what doesn't kill you makes you stronger, huh? Let's find out how good we are.</t>
+  </si>
+  <si>
+    <t>This tiny whisper model is truly impressive. The recordings are very much on point.</t>
+  </si>
+  <si>
+    <t>I'm truly happy that this exam phase is coming to an end. The semester has truly been hard.</t>
+  </si>
+  <si>
+    <t>The air in this sound booth here is truly a joke. Maybe I'll not even survive this by breath</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I already started to get hangry my humor changes for bad when I'm like this. </t>
+  </si>
+  <si>
+    <t>It is beautiful when sitting at the third floor of Catolica University</t>
+  </si>
+  <si>
+    <t>This new AI tool is actually something awesome. I excited how much the new get-up free versi</t>
+  </si>
+  <si>
+    <t>The package arrived, but it was empty, just a crumpled note saying 'Better luck next time!</t>
+  </si>
+  <si>
+    <t>Eating here at Katolika University truly is not that good. Food is not that healthy and also it doesn't taste that good.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -156,10 +162,25 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="9"/>
-      <color theme="1"/>
+      <color rgb="FF000000"/>
       <name val="Menlo"/>
       <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -182,11 +203,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -521,10 +544,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{58D86DF2-281C-4E4A-9A90-AE0E1692E9FA}">
-  <dimension ref="A1:D33"/>
+  <dimension ref="A1:C33"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="159" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+    <sheetView tabSelected="1" zoomScale="94" workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -532,274 +555,367 @@
     <col min="1" max="1" width="106.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="1">
+        <v>0</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="1">
+        <v>0</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A4" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" s="1">
+        <v>0</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A5" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5" s="1">
+        <v>0</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A6" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6" s="1">
+        <v>0</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A7" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7" s="1">
+        <v>0</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A8" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B8" s="1">
+        <v>0</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A9" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B9" s="1">
+        <v>0</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A10" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B10" s="1">
+        <v>0</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A11" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B11" s="1">
+        <v>0</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A12" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B12" s="1">
+        <v>0</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A13" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B13" s="1">
+        <v>0</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A14" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B14" s="1">
+        <v>0</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A15" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B15" s="1">
+        <v>0</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A16" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B16" s="1">
+        <v>0</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A17" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B17" s="1">
+        <v>0</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A18" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B18" s="1">
+        <v>0</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A19" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B19" s="1">
+        <v>1</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A20" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B20" s="1">
+        <v>0</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A21" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B21" s="1">
+        <v>1</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A22" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B22" s="1">
+        <v>1</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A23" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B23" s="1">
+        <v>1</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A24" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B24" s="1">
+        <v>0</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A25" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B25" s="1">
+        <v>0</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A26" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B26" s="1">
+        <v>0</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A27" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B27" s="1">
+        <v>1</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A28" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B28" s="1">
+        <v>1</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A29" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="C1" t="s">
+      <c r="B29" s="1">
+        <v>1</v>
+      </c>
+      <c r="C29" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A30" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="D1" t="s">
+      <c r="B30" s="1">
+        <v>1</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A31" s="2" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A2" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A3" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A4" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A5" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A6" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A7" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A8" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A9" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A10" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A11" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A12" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A13" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A14" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A15" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A16" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A17" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A18" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A19" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B19">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A20" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A21" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B21">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A22" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B22">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A23" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="B23">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A24" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A25" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="B25">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A26" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="B26">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A27" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="B27">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A28" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="B28">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A29" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B29">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A30" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="B30">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A31" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="B31">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A32" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="B32">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A33" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="B33">
-        <v>0</v>
+      <c r="B31" s="1">
+        <v>0</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A32" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B32" s="1">
+        <v>0</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A33" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B33" s="1">
+        <v>0</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>7</v>
       </c>
     </row>
   </sheetData>
